--- a/EcWebApp/Content/modelos/RelDesempenho.xlsx
+++ b/EcWebApp/Content/modelos/RelDesempenho.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr2 xr6">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnascimento\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="9BB818B328A7644592559442E9AB8607CDB1FC69" xr6:coauthVersionLast="8" xr6:coauthVersionMax="8"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatorio" sheetId="1" r:id="rId1"/>
@@ -63,11 +64,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -147,6 +148,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -156,7 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,85 +471,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:L42"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="7" max="12" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="23.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="4" t="s">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
@@ -568,462 +574,462 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="2:12">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="4"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="2:12">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="4"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="2:12">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="4"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="2:12">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="2:12">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="2:12">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="2:12">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="4"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="7"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="7"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="4"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="7"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="7"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="7"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="4"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="7"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="7"/>
+      <c r="H22" s="4"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="7"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="4"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="7"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="2:12">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="2:12">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="2:12">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="4"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="7"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="2:12">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="7"/>
+      <c r="H28" s="4"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="2:12">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="7"/>
+      <c r="H29" s="4"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="2:12">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="7"/>
+      <c r="H30" s="4"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="2:12">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="7"/>
+      <c r="H31" s="4"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="2:12">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="4"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="2:12">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="4"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="7"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="2:12">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="7"/>
+      <c r="H34" s="4"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="7"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="2:12">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="7"/>
+      <c r="H35" s="4"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="7"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="2:12">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="7"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="7"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="2:12">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="7"/>
+      <c r="H37" s="4"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="7"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="2:12">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="7"/>
+      <c r="H38" s="4"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="7"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="2:12">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="7"/>
+      <c r="H39" s="4"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="2:12">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="4"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="2:12">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="4"/>
       <c r="I41" s="2"/>
-      <c r="J41" s="7"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="2:12">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="4"/>
       <c r="I42" s="2"/>
-      <c r="J42" s="7"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="2:12">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1036,7 +1042,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1049,7 +1055,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1062,7 +1068,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1075,7 +1081,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1088,7 +1094,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1101,7 +1107,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1114,7 +1120,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1127,7 +1133,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1140,7 +1146,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1153,7 +1159,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1166,7 +1172,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1179,7 +1185,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1192,7 +1198,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1205,7 +1211,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1218,7 +1224,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1231,7 +1237,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1244,7 +1250,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1257,7 +1263,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1270,7 +1276,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1283,7 +1289,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1296,7 +1302,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1309,7 +1315,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1322,7 +1328,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1335,7 +1341,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1348,7 +1354,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1361,7 +1367,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1374,7 +1380,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1387,7 +1393,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1400,7 +1406,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1413,7 +1419,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1426,7 +1432,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1439,7 +1445,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1452,7 +1458,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1465,7 +1471,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1478,7 +1484,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1491,7 +1497,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1504,7 +1510,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1517,7 +1523,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1530,7 +1536,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="2:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1543,7 +1549,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1556,7 +1562,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1569,7 +1575,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1582,7 +1588,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1595,7 +1601,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="2:12">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1608,7 +1614,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1621,7 +1627,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
